--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>no-domain-vital-signs-observations-heartrate-bodysitevalueset</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>FHIR Project team</t>
   </si>
   <si>
     <t>Contact</t>
@@ -358,38 +358,40 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>10</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>12</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>14</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-alpha</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -299,10 +299,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.0</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.3</t>
+    <t>0.7.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>FHIR Project team</t>
+    <t>HL7 Norway</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Norway (http://www.hl7.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationHeartRateBodySite.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>This resource includes content from SNOMED Clinical Terms® (SNOMED CT®) which is copyright of the International Health Terminology Standards Development Organisation (IHTSDO). Implementers of these specifications must have the appropriate SNOMED CT Affiliate license - for more information contact http://www.snomed.org/snomed-ct/get-snomed-ct or info@snomed.org</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -361,14 +364,16 @@
       <c r="A14" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -390,7 +395,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -398,26 +403,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
